--- a/output_from_CMC /data_tables_from_CMC /stats_analysis_output_replicate_CMC .xlsx
+++ b/output_from_CMC /data_tables_from_CMC /stats_analysis_output_replicate_CMC .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="19">
   <si>
     <t>index</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>4.0168 .. 3.8466</t>
-  </si>
-  <si>
-    <t>3.8466 .. 3.6757</t>
-  </si>
-  <si>
-    <t>3.6757 .. 3.5642</t>
   </si>
   <si>
     <t>3.4172 .. 3.2180</t>
@@ -434,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -630,31 +624,31 @@
         <v>0.25</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5">
-        <v>3.76115</v>
+        <v>3.3176</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.008981195621667007</v>
+        <v>0.02210750976209637</v>
       </c>
       <c r="K5">
         <v>0.9</v>
       </c>
       <c r="L5">
-        <v>0.008083076059500307</v>
+        <v>0.01989675878588673</v>
       </c>
       <c r="M5">
-        <v>1.306624808715971E-05</v>
+        <v>1.771926101268262E-05</v>
       </c>
       <c r="N5">
-        <v>0.03717582544739745</v>
+        <v>0.1104576358188616</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -662,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -674,31 +668,31 @@
         <v>0.25</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6">
-        <v>3.61995</v>
+        <v>3.1402</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.01078081328797686</v>
+        <v>0.02997567871145928</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>0.009702731959179174</v>
+        <v>0.02697811084031335</v>
       </c>
       <c r="M6">
-        <v>2.655526453262983E-05</v>
+        <v>0.0003264717664450311</v>
       </c>
       <c r="N6">
-        <v>0.04397209814987003</v>
+        <v>0.2159972824233083</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -706,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -715,34 +709,34 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>3.3176</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.02210750976209637</v>
+        <v>0.02552685481397717</v>
       </c>
       <c r="K7">
         <v>0.9</v>
       </c>
       <c r="L7">
-        <v>0.01989675878588673</v>
+        <v>0.02297416933257945</v>
       </c>
       <c r="M7">
-        <v>1.771926101268262E-05</v>
+        <v>0.0001215573774235479</v>
       </c>
       <c r="N7">
-        <v>0.1104576358188616</v>
+        <v>0.05856703481053881</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -750,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -759,34 +753,34 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>3.1402</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.02997567871145928</v>
+        <v>0.0278243758398489</v>
       </c>
       <c r="K8">
         <v>0.9</v>
       </c>
       <c r="L8">
-        <v>0.02697811084031335</v>
+        <v>0.02504193825586401</v>
       </c>
       <c r="M8">
-        <v>0.0003264717664450311</v>
+        <v>1.76019906699687E-05</v>
       </c>
       <c r="N8">
-        <v>0.2159972824233083</v>
+        <v>0.0789433074864237</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -794,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -806,31 +800,31 @@
         <v>0.5</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>4.251749999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.02552685481397717</v>
+        <v>0.01469013149514879</v>
       </c>
       <c r="K9">
         <v>0.9</v>
       </c>
       <c r="L9">
-        <v>0.02297416933257945</v>
+        <v>0.01322111834563391</v>
       </c>
       <c r="M9">
-        <v>0.0001215573774235479</v>
+        <v>5.580341930556679E-06</v>
       </c>
       <c r="N9">
-        <v>0.05856703481053881</v>
+        <v>0.04127760046324255</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -838,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -850,31 +844,31 @@
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>4.087149999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.0278243758398489</v>
+        <v>0.03251634269491727</v>
       </c>
       <c r="K10">
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>0.02504193825586401</v>
+        <v>0.02926470842542555</v>
       </c>
       <c r="M10">
-        <v>1.76019906699687E-05</v>
+        <v>1.771926101268262E-05</v>
       </c>
       <c r="N10">
-        <v>0.0789433074864237</v>
+        <v>0.1104576358188616</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -882,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -894,31 +888,31 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>3.9317</v>
+        <v>3.1402</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.01469013149514879</v>
+        <v>0.03865277780917666</v>
       </c>
       <c r="K11">
         <v>0.9</v>
       </c>
       <c r="L11">
-        <v>0.01322111834563391</v>
+        <v>0.03478750002825899</v>
       </c>
       <c r="M11">
-        <v>5.580341930556679E-06</v>
+        <v>0.0003264717664450311</v>
       </c>
       <c r="N11">
-        <v>0.04127760046324255</v>
+        <v>0.2159972824233083</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -926,43 +920,43 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
       <c r="H12">
-        <v>3.76115</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.009261622336152709</v>
+        <v>0.0245956399594857</v>
       </c>
       <c r="K12">
         <v>0.9</v>
       </c>
       <c r="L12">
-        <v>0.008335460102537438</v>
+        <v>0.02213607596353713</v>
       </c>
       <c r="M12">
-        <v>1.306624808715971E-05</v>
+        <v>0.0001215573774235479</v>
       </c>
       <c r="N12">
-        <v>0.03717582544739745</v>
+        <v>0.05856703481053881</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -970,43 +964,43 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0.75</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
       <c r="H13">
-        <v>3.61995</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.01204853000623627</v>
+        <v>0.03157610405820785</v>
       </c>
       <c r="K13">
         <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.01084367700561264</v>
+        <v>0.02841849365238706</v>
       </c>
       <c r="M13">
-        <v>2.655526453262983E-05</v>
+        <v>1.76019906699687E-05</v>
       </c>
       <c r="N13">
-        <v>0.04397209814987003</v>
+        <v>0.0789433074864237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1014,43 +1008,43 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0.75</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
       <c r="H14">
-        <v>3.3176</v>
+        <v>3.9317</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.03251634269491727</v>
+        <v>0.01904166945305186</v>
       </c>
       <c r="K14">
         <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.02926470842542555</v>
+        <v>0.01713750250774667</v>
       </c>
       <c r="M14">
-        <v>1.771926101268262E-05</v>
+        <v>5.580341930556679E-06</v>
       </c>
       <c r="N14">
-        <v>0.1104576358188616</v>
+        <v>0.04127760046324255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1058,43 +1052,43 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>0.75</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
       <c r="H15">
-        <v>3.1402</v>
+        <v>3.3176</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.03865277780917666</v>
+        <v>0.04100444574600468</v>
       </c>
       <c r="K15">
         <v>0.9</v>
       </c>
       <c r="L15">
-        <v>0.03478750002825899</v>
+        <v>0.03690400117140422</v>
       </c>
       <c r="M15">
-        <v>0.0003264717664450311</v>
+        <v>1.771926101268262E-05</v>
       </c>
       <c r="N15">
-        <v>0.2159972824233083</v>
+        <v>0.1104576358188616</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1102,7 +1096,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1114,31 +1108,31 @@
         <v>0.75</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>4.251749999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.0245956399594857</v>
+        <v>0.05861405381468694</v>
       </c>
       <c r="K16">
         <v>0.9</v>
       </c>
       <c r="L16">
-        <v>0.02213607596353713</v>
+        <v>0.05275264843321825</v>
       </c>
       <c r="M16">
-        <v>0.0001215573774235479</v>
+        <v>0.0003264717664450311</v>
       </c>
       <c r="N16">
-        <v>0.05856703481053881</v>
+        <v>0.2159972824233083</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1146,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1155,34 +1149,34 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>4.087149999999999</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.03157610405820785</v>
+        <v>0.04624189111080537</v>
       </c>
       <c r="K17">
         <v>0.9</v>
       </c>
       <c r="L17">
-        <v>0.02841849365238706</v>
+        <v>0.04161770199972484</v>
       </c>
       <c r="M17">
-        <v>1.76019906699687E-05</v>
+        <v>0.0001215573774235479</v>
       </c>
       <c r="N17">
-        <v>0.0789433074864237</v>
+        <v>0.05856703481053881</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1190,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1199,34 +1193,34 @@
         <v>9</v>
       </c>
       <c r="E18">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>3.9317</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.01904166945305186</v>
+        <v>0.04035641156951187</v>
       </c>
       <c r="K18">
         <v>0.9</v>
       </c>
       <c r="L18">
-        <v>0.01713750250774667</v>
+        <v>0.03632077041256068</v>
       </c>
       <c r="M18">
-        <v>5.580341930556679E-06</v>
+        <v>1.76019906699687E-05</v>
       </c>
       <c r="N18">
-        <v>0.04127760046324255</v>
+        <v>0.0789433074864237</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1234,7 +1228,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1243,34 +1237,34 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>3.76115</v>
+        <v>3.9317</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.01534873448400628</v>
+        <v>0.01969337296291231</v>
       </c>
       <c r="K19">
         <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.01381386103560566</v>
+        <v>0.01772403566662108</v>
       </c>
       <c r="M19">
-        <v>1.306624808715971E-05</v>
+        <v>5.580341930556679E-06</v>
       </c>
       <c r="N19">
-        <v>0.03717582544739745</v>
+        <v>0.04127760046324255</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1278,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1287,34 +1281,34 @@
         <v>9</v>
       </c>
       <c r="E20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20">
-        <v>3.61995</v>
+        <v>3.3176</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.02139370773612743</v>
+        <v>0.0382708604953917</v>
       </c>
       <c r="K20">
         <v>0.9</v>
       </c>
       <c r="L20">
-        <v>0.01925433696251469</v>
+        <v>0.03444377444585252</v>
       </c>
       <c r="M20">
-        <v>2.655526453262983E-05</v>
+        <v>1.771926101268262E-05</v>
       </c>
       <c r="N20">
-        <v>0.04397209814987003</v>
+        <v>0.1104576358188616</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1322,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1331,34 +1325,34 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>3.3176</v>
+        <v>3.1402</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.04100444574600468</v>
+        <v>0.03306069272298243</v>
       </c>
       <c r="K21">
         <v>0.9</v>
       </c>
       <c r="L21">
-        <v>0.03690400117140422</v>
+        <v>0.02975462345068419</v>
       </c>
       <c r="M21">
-        <v>1.771926101268262E-05</v>
+        <v>0.0003264717664450311</v>
       </c>
       <c r="N21">
-        <v>0.1104576358188616</v>
+        <v>0.2159972824233083</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1366,7 +1360,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1375,34 +1369,34 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H22">
-        <v>3.1402</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.05861405381468694</v>
+        <v>0.04113949631459559</v>
       </c>
       <c r="K22">
         <v>0.9</v>
       </c>
       <c r="L22">
-        <v>0.05275264843321825</v>
+        <v>0.03702554668313603</v>
       </c>
       <c r="M22">
-        <v>0.0003264717664450311</v>
+        <v>0.0001215573774235479</v>
       </c>
       <c r="N22">
-        <v>0.2159972824233083</v>
+        <v>0.05856703481053881</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1410,7 +1404,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1419,34 +1413,34 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>4.251749999999999</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.04624189111080537</v>
+        <v>0.03937639266318632</v>
       </c>
       <c r="K23">
         <v>0.9</v>
       </c>
       <c r="L23">
-        <v>0.04161770199972484</v>
+        <v>0.03543875339686769</v>
       </c>
       <c r="M23">
-        <v>0.0001215573774235479</v>
+        <v>1.76019906699687E-05</v>
       </c>
       <c r="N23">
-        <v>0.05856703481053881</v>
+        <v>0.0789433074864237</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1454,7 +1448,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1463,34 +1457,34 @@
         <v>9</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>4.087149999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.04035641156951187</v>
+        <v>0.0205840139744303</v>
       </c>
       <c r="K24">
         <v>0.9</v>
       </c>
       <c r="L24">
-        <v>0.03632077041256068</v>
+        <v>0.01852561257698727</v>
       </c>
       <c r="M24">
-        <v>1.76019906699687E-05</v>
+        <v>5.580341930556679E-06</v>
       </c>
       <c r="N24">
-        <v>0.0789433074864237</v>
+        <v>0.04127760046324255</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1498,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1507,34 +1501,34 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25">
-        <v>3.9317</v>
+        <v>3.3176</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.01969337296291231</v>
+        <v>0.04037843562279154</v>
       </c>
       <c r="K25">
         <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.01772403566662108</v>
+        <v>0.03634059206051238</v>
       </c>
       <c r="M25">
-        <v>5.580341930556679E-06</v>
+        <v>1.771926101268262E-05</v>
       </c>
       <c r="N25">
-        <v>0.04127760046324255</v>
+        <v>0.1104576358188616</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1542,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1551,34 +1545,34 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26">
-        <v>3.76115</v>
+        <v>3.1402</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.0139367233216675</v>
+        <v>0.03881761740429988</v>
       </c>
       <c r="K26">
         <v>0.9</v>
       </c>
       <c r="L26">
-        <v>0.01254305098950075</v>
+        <v>0.03493585566386989</v>
       </c>
       <c r="M26">
-        <v>1.306624808715971E-05</v>
+        <v>0.0003264717664450311</v>
       </c>
       <c r="N26">
-        <v>0.03717582544739745</v>
+        <v>0.2159972824233083</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1586,7 +1580,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1595,34 +1589,34 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>3.61995</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0.01683116483556029</v>
+        <v>0.04448538396300877</v>
       </c>
       <c r="K27">
         <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.01514804835200427</v>
+        <v>0.04003684556670789</v>
       </c>
       <c r="M27">
-        <v>2.655526453262983E-05</v>
+        <v>0.0001215573774235479</v>
       </c>
       <c r="N27">
-        <v>0.04397209814987003</v>
+        <v>0.05856703481053881</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1630,7 +1624,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1639,34 +1633,34 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H28">
-        <v>3.3176</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0382708604953917</v>
+        <v>0.04190755536237745</v>
       </c>
       <c r="K28">
         <v>0.9</v>
       </c>
       <c r="L28">
-        <v>0.03444377444585252</v>
+        <v>0.0377167998261397</v>
       </c>
       <c r="M28">
-        <v>1.771926101268262E-05</v>
+        <v>1.76019906699687E-05</v>
       </c>
       <c r="N28">
-        <v>0.1104576358188616</v>
+        <v>0.0789433074864237</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1674,7 +1668,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1683,34 +1677,34 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>3.1402</v>
+        <v>3.9317</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0.03306069272298243</v>
+        <v>0.02237944597770384</v>
       </c>
       <c r="K29">
         <v>0.9</v>
       </c>
       <c r="L29">
-        <v>0.02975462345068419</v>
+        <v>0.02014150137993345</v>
       </c>
       <c r="M29">
-        <v>0.0003264717664450311</v>
+        <v>5.580341930556679E-06</v>
       </c>
       <c r="N29">
-        <v>0.2159972824233083</v>
+        <v>0.04127760046324255</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1718,7 +1712,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1727,34 +1721,34 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30">
-        <v>4.251749999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.04113949631459559</v>
+        <v>0.04406635361548782</v>
       </c>
       <c r="K30">
         <v>0.9</v>
       </c>
       <c r="L30">
-        <v>0.03702554668313603</v>
+        <v>0.03965971825393904</v>
       </c>
       <c r="M30">
-        <v>0.0001215573774235479</v>
+        <v>1.771926101268262E-05</v>
       </c>
       <c r="N30">
-        <v>0.05856703481053881</v>
+        <v>0.1104576358188616</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1762,7 +1756,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1771,34 +1765,34 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>4.087149999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.03937639266318632</v>
+        <v>0.03823017993574725</v>
       </c>
       <c r="K31">
         <v>0.9</v>
       </c>
       <c r="L31">
-        <v>0.03543875339686769</v>
+        <v>0.03440716194217253</v>
       </c>
       <c r="M31">
-        <v>1.76019906699687E-05</v>
+        <v>0.0003264717664450311</v>
       </c>
       <c r="N31">
-        <v>0.0789433074864237</v>
+        <v>0.2159972824233083</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1806,7 +1800,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1815,34 +1809,34 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32">
-        <v>3.9317</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.0205840139744303</v>
+        <v>0.05083830511424625</v>
       </c>
       <c r="K32">
         <v>0.9</v>
       </c>
       <c r="L32">
-        <v>0.01852561257698727</v>
+        <v>0.04575447460282163</v>
       </c>
       <c r="M32">
-        <v>5.580341930556679E-06</v>
+        <v>0.0001215573774235479</v>
       </c>
       <c r="N32">
-        <v>0.04127760046324255</v>
+        <v>0.05856703481053881</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1850,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1859,34 +1853,34 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>3.76115</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.0134072393637478</v>
+        <v>0.04476858384998386</v>
       </c>
       <c r="K33">
         <v>0.9</v>
       </c>
       <c r="L33">
-        <v>0.01206651542737302</v>
+        <v>0.04029172546498547</v>
       </c>
       <c r="M33">
-        <v>1.306624808715971E-05</v>
+        <v>1.76019906699687E-05</v>
       </c>
       <c r="N33">
-        <v>0.03717582544739745</v>
+        <v>0.0789433074864237</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1894,7 +1888,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1903,34 +1897,34 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>3.61995</v>
+        <v>3.9317</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.01907542729922861</v>
+        <v>0.02505904768554759</v>
       </c>
       <c r="K34">
         <v>0.9</v>
       </c>
       <c r="L34">
-        <v>0.01716788456930575</v>
+        <v>0.02255314291699283</v>
       </c>
       <c r="M34">
-        <v>2.655526453262983E-05</v>
+        <v>5.580341930556679E-06</v>
       </c>
       <c r="N34">
-        <v>0.04397209814987003</v>
+        <v>0.04127760046324255</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1938,7 +1932,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1947,13 +1941,13 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35">
         <v>3.3176</v>
@@ -1962,13 +1956,13 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.04037843562279154</v>
+        <v>0.04475916455077995</v>
       </c>
       <c r="K35">
         <v>0.9</v>
       </c>
       <c r="L35">
-        <v>0.03634059206051238</v>
+        <v>0.04028324809570196</v>
       </c>
       <c r="M35">
         <v>1.771926101268262E-05</v>
@@ -1982,7 +1976,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1991,13 +1985,13 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F36">
         <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36">
         <v>3.1402</v>
@@ -2006,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.03881761740429988</v>
+        <v>0.04311513323115708</v>
       </c>
       <c r="K36">
         <v>0.9</v>
       </c>
       <c r="L36">
-        <v>0.03493585566386989</v>
+        <v>0.03880361990804138</v>
       </c>
       <c r="M36">
         <v>0.0003264717664450311</v>
@@ -2026,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2035,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2047,22 +2041,22 @@
         <v>4.251749999999999</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0.04448538396300877</v>
+        <v>-0.001516968724082293</v>
       </c>
       <c r="K37">
         <v>0.9</v>
       </c>
       <c r="L37">
-        <v>0.04003684556670789</v>
+        <v>-0.001365271851674064</v>
       </c>
       <c r="M37">
-        <v>0.0001215573774235479</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N37">
-        <v>0.05856703481053881</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2070,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2079,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -2091,22 +2085,22 @@
         <v>4.087149999999999</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>0.04190755536237745</v>
+        <v>0.007209059069550242</v>
       </c>
       <c r="K38">
         <v>0.9</v>
       </c>
       <c r="L38">
-        <v>0.0377167998261397</v>
+        <v>0.006488153162595218</v>
       </c>
       <c r="M38">
-        <v>1.76019906699687E-05</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N38">
-        <v>0.0789433074864237</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2114,7 +2108,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2123,7 +2117,7 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -2135,22 +2129,22 @@
         <v>3.9317</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0.02237944597770384</v>
+        <v>0.01179526551379749</v>
       </c>
       <c r="K39">
         <v>0.9</v>
       </c>
       <c r="L39">
-        <v>0.02014150137993345</v>
+        <v>0.01061573896241774</v>
       </c>
       <c r="M39">
-        <v>5.580341930556679E-06</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N39">
-        <v>0.04127760046324255</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2158,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2167,34 +2161,34 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
       </c>
       <c r="H40">
-        <v>3.76115</v>
+        <v>3.3176</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>0.01490990325419115</v>
+        <v>0.02062475545997254</v>
       </c>
       <c r="K40">
         <v>0.9</v>
       </c>
       <c r="L40">
-        <v>0.01341891292877204</v>
+        <v>0.01856227991397529</v>
       </c>
       <c r="M40">
-        <v>1.306624808715971E-05</v>
+        <v>3.671802207726831E-05</v>
       </c>
       <c r="N40">
-        <v>0.03717582544739745</v>
+        <v>0.2787734432715554</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2202,7 +2196,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2211,34 +2205,34 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
       </c>
       <c r="H41">
-        <v>3.61995</v>
+        <v>3.1402</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.02107602302667049</v>
+        <v>0.05832865123758703</v>
       </c>
       <c r="K41">
         <v>0.9</v>
       </c>
       <c r="L41">
-        <v>0.01896842072400345</v>
+        <v>0.05249578611382832</v>
       </c>
       <c r="M41">
-        <v>2.655526453262983E-05</v>
+        <v>0.0005853908925923523</v>
       </c>
       <c r="N41">
-        <v>0.04397209814987003</v>
+        <v>2.895564971504963</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2246,7 +2240,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2255,34 +2249,34 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>3.3176</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>0.04406635361548782</v>
+        <v>0.006538271026456655</v>
       </c>
       <c r="K42">
         <v>0.9</v>
       </c>
       <c r="L42">
-        <v>0.03965971825393904</v>
+        <v>0.00588444392381099</v>
       </c>
       <c r="M42">
-        <v>1.771926101268262E-05</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N42">
-        <v>0.1104576358188616</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2290,7 +2284,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2299,34 +2293,34 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H43">
-        <v>3.1402</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>0.03823017993574725</v>
+        <v>0.01665282204238568</v>
       </c>
       <c r="K43">
         <v>0.9</v>
       </c>
       <c r="L43">
-        <v>0.03440716194217253</v>
+        <v>0.01498753983814711</v>
       </c>
       <c r="M43">
-        <v>0.0003264717664450311</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N43">
-        <v>0.2159972824233083</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2334,7 +2328,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2343,34 +2337,34 @@
         <v>9</v>
       </c>
       <c r="E44">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H44">
-        <v>4.251749999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.05083830511424625</v>
+        <v>0.01312042677491202</v>
       </c>
       <c r="K44">
         <v>0.9</v>
       </c>
       <c r="L44">
-        <v>0.04575447460282163</v>
+        <v>0.01180838409742082</v>
       </c>
       <c r="M44">
-        <v>0.0001215573774235479</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N44">
-        <v>0.05856703481053881</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2378,7 +2372,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2387,34 +2381,34 @@
         <v>9</v>
       </c>
       <c r="E45">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45">
-        <v>4.087149999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.04476858384998386</v>
+        <v>0.02010330289891433</v>
       </c>
       <c r="K45">
         <v>0.9</v>
       </c>
       <c r="L45">
-        <v>0.04029172546498547</v>
+        <v>0.0180929726090229</v>
       </c>
       <c r="M45">
-        <v>1.76019906699687E-05</v>
+        <v>3.671802207726831E-05</v>
       </c>
       <c r="N45">
-        <v>0.0789433074864237</v>
+        <v>0.2787734432715554</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2422,7 +2416,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2431,34 +2425,34 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H46">
-        <v>3.9317</v>
+        <v>3.1402</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46">
-        <v>0.02505904768554759</v>
+        <v>0.04381814167110585</v>
       </c>
       <c r="K46">
         <v>0.9</v>
       </c>
       <c r="L46">
-        <v>0.02255314291699283</v>
+        <v>0.03943632750399526</v>
       </c>
       <c r="M46">
-        <v>5.580341930556679E-06</v>
+        <v>0.0005853908925923523</v>
       </c>
       <c r="N46">
-        <v>0.04127760046324255</v>
+        <v>2.895564971504963</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2466,7 +2460,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2475,34 +2469,34 @@
         <v>9</v>
       </c>
       <c r="E47">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H47">
-        <v>3.76115</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47">
-        <v>0.01707182921052557</v>
+        <v>0.009488607743723693</v>
       </c>
       <c r="K47">
         <v>0.9</v>
       </c>
       <c r="L47">
-        <v>0.01536464628947301</v>
+        <v>0.008539746969351324</v>
       </c>
       <c r="M47">
-        <v>1.306624808715971E-05</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N47">
-        <v>0.03717582544739745</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2510,7 +2504,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2519,34 +2513,34 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H48">
-        <v>3.61995</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>0.02259747668184382</v>
+        <v>0.0175922350286977</v>
       </c>
       <c r="K48">
         <v>0.9</v>
       </c>
       <c r="L48">
-        <v>0.02033772901365944</v>
+        <v>0.01583301152582793</v>
       </c>
       <c r="M48">
-        <v>2.655526453262983E-05</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N48">
-        <v>0.04397209814987003</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2554,7 +2548,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2563,34 +2557,34 @@
         <v>9</v>
       </c>
       <c r="E49">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H49">
-        <v>3.3176</v>
+        <v>3.9317</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49">
-        <v>0.04475916455077995</v>
+        <v>0.01396404363996477</v>
       </c>
       <c r="K49">
         <v>0.9</v>
       </c>
       <c r="L49">
-        <v>0.04028324809570196</v>
+        <v>0.01256763927596829</v>
       </c>
       <c r="M49">
-        <v>1.771926101268262E-05</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N49">
-        <v>0.1104576358188616</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2598,7 +2592,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2607,34 +2601,34 @@
         <v>9</v>
       </c>
       <c r="E50">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H50">
-        <v>3.1402</v>
+        <v>3.3176</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.04311513323115708</v>
+        <v>0.01920350552747476</v>
       </c>
       <c r="K50">
         <v>0.9</v>
       </c>
       <c r="L50">
-        <v>0.03880361990804138</v>
+        <v>0.01728315497472729</v>
       </c>
       <c r="M50">
-        <v>0.0003264717664450311</v>
+        <v>3.671802207726831E-05</v>
       </c>
       <c r="N50">
-        <v>0.2159972824233083</v>
+        <v>0.2787734432715554</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2642,7 +2636,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2651,34 +2645,34 @@
         <v>9</v>
       </c>
       <c r="E51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H51">
-        <v>4.251749999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="I51">
         <v>2</v>
       </c>
       <c r="J51">
-        <v>-0.001516968724082293</v>
+        <v>0.0422479343585005</v>
       </c>
       <c r="K51">
         <v>0.9</v>
       </c>
       <c r="L51">
-        <v>-0.001365271851674064</v>
+        <v>0.03802314092265045</v>
       </c>
       <c r="M51">
-        <v>4.324618707693178E-05</v>
+        <v>0.0005853908925923523</v>
       </c>
       <c r="N51">
-        <v>0.01227266299094332</v>
+        <v>2.895564971504963</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2686,7 +2680,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -2695,34 +2689,34 @@
         <v>9</v>
       </c>
       <c r="E52">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
-        <v>4.087149999999999</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52">
-        <v>0.007209059069550242</v>
+        <v>0.01715682911636828</v>
       </c>
       <c r="K52">
         <v>0.9</v>
       </c>
       <c r="L52">
-        <v>0.006488153162595218</v>
+        <v>0.01544114620473145</v>
       </c>
       <c r="M52">
-        <v>9.441034181154704E-06</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N52">
-        <v>0.03746772920036682</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2730,7 +2724,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2739,34 +2733,34 @@
         <v>9</v>
       </c>
       <c r="E53">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <v>3.9317</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
       <c r="J53">
-        <v>0.01179526551379749</v>
+        <v>0.02130281529755758</v>
       </c>
       <c r="K53">
         <v>0.9</v>
       </c>
       <c r="L53">
-        <v>0.01061573896241774</v>
+        <v>0.01917253376780182</v>
       </c>
       <c r="M53">
-        <v>2.130806825184582E-05</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N53">
-        <v>0.04856477122737014</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2774,7 +2768,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2783,34 +2777,34 @@
         <v>9</v>
       </c>
       <c r="E54">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54">
-        <v>3.76115</v>
+        <v>3.9317</v>
       </c>
       <c r="I54">
         <v>2</v>
       </c>
       <c r="J54">
-        <v>0.01470913663308856</v>
+        <v>0.01699809974717197</v>
       </c>
       <c r="K54">
         <v>0.9</v>
       </c>
       <c r="L54">
-        <v>0.01323822296977971</v>
+        <v>0.01529828977245477</v>
       </c>
       <c r="M54">
-        <v>8.862223014045866E-05</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N54">
-        <v>0.6574797639519758</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2818,7 +2812,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2827,34 +2821,34 @@
         <v>9</v>
       </c>
       <c r="E55">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55">
-        <v>3.61995</v>
+        <v>3.3176</v>
       </c>
       <c r="I55">
         <v>2</v>
       </c>
       <c r="J55">
-        <v>0.01471152094767392</v>
+        <v>0.02173606623880757</v>
       </c>
       <c r="K55">
         <v>0.9</v>
       </c>
       <c r="L55">
-        <v>0.01324036885290653</v>
+        <v>0.01956245961492681</v>
       </c>
       <c r="M55">
-        <v>7.003155972965688E-05</v>
+        <v>3.671802207726831E-05</v>
       </c>
       <c r="N55">
-        <v>0.7108802304396116</v>
+        <v>0.2787734432715554</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2862,7 +2856,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2871,34 +2865,34 @@
         <v>9</v>
       </c>
       <c r="E56">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H56">
-        <v>3.3176</v>
+        <v>3.1402</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56">
-        <v>0.02062475545997254</v>
+        <v>0.04079773077655844</v>
       </c>
       <c r="K56">
         <v>0.9</v>
       </c>
       <c r="L56">
-        <v>0.01856227991397529</v>
+        <v>0.0367179576989026</v>
       </c>
       <c r="M56">
-        <v>3.671802207726831E-05</v>
+        <v>0.0005853908925923523</v>
       </c>
       <c r="N56">
-        <v>0.2787734432715554</v>
+        <v>2.895564971504963</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2906,7 +2900,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2915,34 +2909,34 @@
         <v>9</v>
       </c>
       <c r="E57">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H57">
-        <v>3.1402</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I57">
         <v>2</v>
       </c>
       <c r="J57">
-        <v>0.05832865123758703</v>
+        <v>0.0189130405429184</v>
       </c>
       <c r="K57">
         <v>0.9</v>
       </c>
       <c r="L57">
-        <v>0.05249578611382832</v>
+        <v>0.01702173648862656</v>
       </c>
       <c r="M57">
-        <v>0.0005853908925923523</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N57">
-        <v>2.895564971504963</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2950,7 +2944,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2959,34 +2953,34 @@
         <v>9</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>4.251749999999999</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I58">
         <v>2</v>
       </c>
       <c r="J58">
-        <v>0.006538271026456655</v>
+        <v>0.02357905687648524</v>
       </c>
       <c r="K58">
         <v>0.9</v>
       </c>
       <c r="L58">
-        <v>0.00588444392381099</v>
+        <v>0.02122115118883672</v>
       </c>
       <c r="M58">
-        <v>4.324618707693178E-05</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N58">
-        <v>0.01227266299094332</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2994,7 +2988,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3003,34 +2997,34 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H59">
-        <v>4.087149999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59">
-        <v>0.01665282204238568</v>
+        <v>0.01609446140832781</v>
       </c>
       <c r="K59">
         <v>0.9</v>
       </c>
       <c r="L59">
-        <v>0.01498753983814711</v>
+        <v>0.01448501526749503</v>
       </c>
       <c r="M59">
-        <v>9.441034181154704E-06</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N59">
-        <v>0.03746772920036682</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3038,7 +3032,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3047,34 +3041,34 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60">
-        <v>3.9317</v>
+        <v>3.3176</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60">
-        <v>0.01312042677491202</v>
+        <v>0.01803698628731662</v>
       </c>
       <c r="K60">
         <v>0.9</v>
       </c>
       <c r="L60">
-        <v>0.01180838409742082</v>
+        <v>0.01623328765858496</v>
       </c>
       <c r="M60">
-        <v>2.130806825184582E-05</v>
+        <v>3.671802207726831E-05</v>
       </c>
       <c r="N60">
-        <v>0.04856477122737014</v>
+        <v>0.2787734432715554</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3082,7 +3076,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3091,34 +3085,34 @@
         <v>9</v>
       </c>
       <c r="E61">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>3.76115</v>
+        <v>3.1402</v>
       </c>
       <c r="I61">
         <v>2</v>
       </c>
       <c r="J61">
-        <v>0.009869297140035819</v>
+        <v>0.02394925923587276</v>
       </c>
       <c r="K61">
         <v>0.9</v>
       </c>
       <c r="L61">
-        <v>0.008882367426032238</v>
+        <v>0.02155433331228548</v>
       </c>
       <c r="M61">
-        <v>8.862223014045866E-05</v>
+        <v>0.0005853908925923523</v>
       </c>
       <c r="N61">
-        <v>0.6574797639519758</v>
+        <v>2.895564971504963</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3126,7 +3120,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -3135,34 +3129,34 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62">
-        <v>3.61995</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62">
-        <v>0.01024624181632083</v>
+        <v>0.01697101809778617</v>
       </c>
       <c r="K62">
         <v>0.9</v>
       </c>
       <c r="L62">
-        <v>0.009221617634688751</v>
+        <v>0.01527391628800755</v>
       </c>
       <c r="M62">
-        <v>7.003155972965688E-05</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N62">
-        <v>0.7108802304396116</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3170,7 +3164,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3179,34 +3173,34 @@
         <v>9</v>
       </c>
       <c r="E63">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H63">
-        <v>3.3176</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I63">
         <v>2</v>
       </c>
       <c r="J63">
-        <v>0.02010330289891433</v>
+        <v>0.02273997858586973</v>
       </c>
       <c r="K63">
         <v>0.9</v>
       </c>
       <c r="L63">
-        <v>0.0180929726090229</v>
+        <v>0.02046598072728276</v>
       </c>
       <c r="M63">
-        <v>3.671802207726831E-05</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N63">
-        <v>0.2787734432715554</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3214,7 +3208,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -3223,34 +3217,34 @@
         <v>9</v>
       </c>
       <c r="E64">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H64">
-        <v>3.1402</v>
+        <v>3.9317</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64">
-        <v>0.04381814167110585</v>
+        <v>0.01665121532570785</v>
       </c>
       <c r="K64">
         <v>0.9</v>
       </c>
       <c r="L64">
-        <v>0.03943632750399526</v>
+        <v>0.01498609379313706</v>
       </c>
       <c r="M64">
-        <v>0.0005853908925923523</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N64">
-        <v>2.895564971504963</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3258,7 +3252,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -3267,34 +3261,34 @@
         <v>9</v>
       </c>
       <c r="E65">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H65">
-        <v>4.251749999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="I65">
         <v>2</v>
       </c>
       <c r="J65">
-        <v>0.009488607743723693</v>
+        <v>0.02084650067546117</v>
       </c>
       <c r="K65">
         <v>0.9</v>
       </c>
       <c r="L65">
-        <v>0.008539746969351324</v>
+        <v>0.01876185060791506</v>
       </c>
       <c r="M65">
-        <v>4.324618707693178E-05</v>
+        <v>3.671802207726831E-05</v>
       </c>
       <c r="N65">
-        <v>0.01227266299094332</v>
+        <v>0.2787734432715554</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3302,7 +3296,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -3311,34 +3305,34 @@
         <v>9</v>
       </c>
       <c r="E66">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H66">
-        <v>4.087149999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="I66">
         <v>2</v>
       </c>
       <c r="J66">
-        <v>0.0175922350286977</v>
+        <v>0.03157231476505027</v>
       </c>
       <c r="K66">
         <v>0.9</v>
       </c>
       <c r="L66">
-        <v>0.01583301152582793</v>
+        <v>0.02841508328854524</v>
       </c>
       <c r="M66">
-        <v>9.441034181154704E-06</v>
+        <v>0.0005853908925923523</v>
       </c>
       <c r="N66">
-        <v>0.03746772920036682</v>
+        <v>2.895564971504963</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3346,7 +3340,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3355,34 +3349,34 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H67">
-        <v>3.9317</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I67">
         <v>2</v>
       </c>
       <c r="J67">
-        <v>0.01396404363996477</v>
+        <v>0.02455922271394022</v>
       </c>
       <c r="K67">
         <v>0.9</v>
       </c>
       <c r="L67">
-        <v>0.01256763927596829</v>
+        <v>0.0221033004425462</v>
       </c>
       <c r="M67">
-        <v>2.130806825184582E-05</v>
+        <v>4.324618707693178E-05</v>
       </c>
       <c r="N67">
-        <v>0.04856477122737014</v>
+        <v>0.01227266299094332</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3390,7 +3384,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3399,34 +3393,34 @@
         <v>9</v>
       </c>
       <c r="E68">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H68">
-        <v>3.76115</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I68">
         <v>2</v>
       </c>
       <c r="J68">
-        <v>0.006118609308206836</v>
+        <v>0.02637650849897863</v>
       </c>
       <c r="K68">
         <v>0.9</v>
       </c>
       <c r="L68">
-        <v>0.005506748377386152</v>
+        <v>0.02373885764908077</v>
       </c>
       <c r="M68">
-        <v>8.862223014045866E-05</v>
+        <v>9.441034181154704E-06</v>
       </c>
       <c r="N68">
-        <v>0.6574797639519758</v>
+        <v>0.03746772920036682</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3434,7 +3428,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3443,34 +3437,34 @@
         <v>9</v>
       </c>
       <c r="E69">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H69">
-        <v>3.61995</v>
+        <v>3.9317</v>
       </c>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69">
-        <v>0.008301700905925679</v>
+        <v>0.02140410891765782</v>
       </c>
       <c r="K69">
         <v>0.9</v>
       </c>
       <c r="L69">
-        <v>0.007471530815333111</v>
+        <v>0.01926369802589204</v>
       </c>
       <c r="M69">
-        <v>7.003155972965688E-05</v>
+        <v>2.130806825184582E-05</v>
       </c>
       <c r="N69">
-        <v>0.7108802304396116</v>
+        <v>0.04856477122737014</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3478,7 +3472,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -3487,13 +3481,13 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F70">
         <v>8</v>
       </c>
       <c r="G70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H70">
         <v>3.3176</v>
@@ -3502,13 +3496,13 @@
         <v>2</v>
       </c>
       <c r="J70">
-        <v>0.01920350552747476</v>
+        <v>0.02666012546451039</v>
       </c>
       <c r="K70">
         <v>0.9</v>
       </c>
       <c r="L70">
-        <v>0.01728315497472729</v>
+        <v>0.02399411291805935</v>
       </c>
       <c r="M70">
         <v>3.671802207726831E-05</v>
@@ -3522,7 +3516,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3531,13 +3525,13 @@
         <v>9</v>
       </c>
       <c r="E71">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F71">
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H71">
         <v>3.1402</v>
@@ -3546,13 +3540,13 @@
         <v>2</v>
       </c>
       <c r="J71">
-        <v>0.0422479343585005</v>
+        <v>0.04677123059048331</v>
       </c>
       <c r="K71">
         <v>0.9</v>
       </c>
       <c r="L71">
-        <v>0.03802314092265045</v>
+        <v>0.04209410753143498</v>
       </c>
       <c r="M71">
         <v>0.0005853908925923523</v>
@@ -3566,7 +3560,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3575,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -3587,22 +3581,22 @@
         <v>4.251749999999999</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>0.01715682911636828</v>
+        <v>0.00264174483239484</v>
       </c>
       <c r="K72">
         <v>0.9</v>
       </c>
       <c r="L72">
-        <v>0.01544114620473145</v>
+        <v>0.002377570349155356</v>
       </c>
       <c r="M72">
-        <v>4.324618707693178E-05</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N72">
-        <v>0.01227266299094332</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3610,7 +3604,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3619,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -3631,22 +3625,22 @@
         <v>4.087149999999999</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J73">
-        <v>0.02130281529755758</v>
+        <v>0.00224930544632867</v>
       </c>
       <c r="K73">
         <v>0.9</v>
       </c>
       <c r="L73">
-        <v>0.01917253376780182</v>
+        <v>0.002024374901695803</v>
       </c>
       <c r="M73">
-        <v>9.441034181154704E-06</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N73">
-        <v>0.03746772920036682</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3654,7 +3648,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3663,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F74">
         <v>5</v>
@@ -3675,22 +3669,22 @@
         <v>3.9317</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>0.01699809974717197</v>
+        <v>-0.002527062410917821</v>
       </c>
       <c r="K74">
         <v>0.9</v>
       </c>
       <c r="L74">
-        <v>0.01529828977245477</v>
+        <v>-0.002274356169826039</v>
       </c>
       <c r="M74">
-        <v>2.130806825184582E-05</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N74">
-        <v>0.04856477122737014</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3698,7 +3692,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3707,34 +3701,34 @@
         <v>9</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
       </c>
       <c r="H75">
-        <v>3.76115</v>
+        <v>3.3176</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75">
-        <v>0.007728157990453478</v>
+        <v>0.005972725456525683</v>
       </c>
       <c r="K75">
         <v>0.9</v>
       </c>
       <c r="L75">
-        <v>0.00695534219140813</v>
+        <v>0.005375452910873114</v>
       </c>
       <c r="M75">
-        <v>8.862223014045866E-05</v>
+        <v>3.291062942286471E-05</v>
       </c>
       <c r="N75">
-        <v>0.6574797639519758</v>
+        <v>0.05010234162663767</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3742,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3751,34 +3745,34 @@
         <v>9</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
       </c>
       <c r="H76">
-        <v>3.61995</v>
+        <v>3.1402</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>0.008117746938550561</v>
+        <v>0.006518702443218966</v>
       </c>
       <c r="K76">
         <v>0.9</v>
       </c>
       <c r="L76">
-        <v>0.007305972244695504</v>
+        <v>0.00586683219889707</v>
       </c>
       <c r="M76">
-        <v>7.003155972965688E-05</v>
+        <v>0.000175014555853058</v>
       </c>
       <c r="N76">
-        <v>0.7108802304396116</v>
+        <v>0.0787148062080076</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3786,7 +3780,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3795,34 +3789,34 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H77">
-        <v>3.3176</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J77">
-        <v>0.02173606623880757</v>
+        <v>0.02103249636071691</v>
       </c>
       <c r="K77">
         <v>0.9</v>
       </c>
       <c r="L77">
-        <v>0.01956245961492681</v>
+        <v>0.01892924672464522</v>
       </c>
       <c r="M77">
-        <v>3.671802207726831E-05</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N77">
-        <v>0.2787734432715554</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3830,7 +3824,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3839,34 +3833,34 @@
         <v>9</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H78">
-        <v>3.1402</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>0.04079773077655844</v>
+        <v>0.01594733294299942</v>
       </c>
       <c r="K78">
         <v>0.9</v>
       </c>
       <c r="L78">
-        <v>0.0367179576989026</v>
+        <v>0.01435259964869947</v>
       </c>
       <c r="M78">
-        <v>0.0005853908925923523</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N78">
-        <v>2.895564971504963</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3874,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3883,34 +3877,34 @@
         <v>9</v>
       </c>
       <c r="E79">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H79">
-        <v>4.251749999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>0.0189130405429184</v>
+        <v>0.009942823999137783</v>
       </c>
       <c r="K79">
         <v>0.9</v>
       </c>
       <c r="L79">
-        <v>0.01702173648862656</v>
+        <v>0.008948541599224005</v>
       </c>
       <c r="M79">
-        <v>4.324618707693178E-05</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N79">
-        <v>0.01227266299094332</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3918,7 +3912,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3927,34 +3921,34 @@
         <v>9</v>
       </c>
       <c r="E80">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H80">
-        <v>4.087149999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>0.02357905687648524</v>
+        <v>0.01739240325373589</v>
       </c>
       <c r="K80">
         <v>0.9</v>
       </c>
       <c r="L80">
-        <v>0.02122115118883672</v>
+        <v>0.01565316292836231</v>
       </c>
       <c r="M80">
-        <v>9.441034181154704E-06</v>
+        <v>3.291062942286471E-05</v>
       </c>
       <c r="N80">
-        <v>0.03746772920036682</v>
+        <v>0.05010234162663767</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3962,7 +3956,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3971,34 +3965,34 @@
         <v>9</v>
       </c>
       <c r="E81">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H81">
-        <v>3.9317</v>
+        <v>3.1402</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>0.01609446140832781</v>
+        <v>0.02759227040651457</v>
       </c>
       <c r="K81">
         <v>0.9</v>
       </c>
       <c r="L81">
-        <v>0.01448501526749503</v>
+        <v>0.02483304336586311</v>
       </c>
       <c r="M81">
-        <v>2.130806825184582E-05</v>
+        <v>0.000175014555853058</v>
       </c>
       <c r="N81">
-        <v>0.04856477122737014</v>
+        <v>0.0787148062080076</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4006,7 +4000,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -4015,34 +4009,34 @@
         <v>9</v>
       </c>
       <c r="E82">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H82">
-        <v>3.76115</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>0.003881368496361923</v>
+        <v>0.02034122329495347</v>
       </c>
       <c r="K82">
         <v>0.9</v>
       </c>
       <c r="L82">
-        <v>0.003493231646725731</v>
+        <v>0.01830710096545812</v>
       </c>
       <c r="M82">
-        <v>8.862223014045866E-05</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N82">
-        <v>0.6574797639519758</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4050,7 +4044,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -4059,34 +4053,34 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>3.61995</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J83">
-        <v>0.00516164375988298</v>
+        <v>0.01813355044152688</v>
       </c>
       <c r="K83">
         <v>0.9</v>
       </c>
       <c r="L83">
-        <v>0.004645479383894682</v>
+        <v>0.01632019539737419</v>
       </c>
       <c r="M83">
-        <v>7.003155972965688E-05</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N83">
-        <v>0.7108802304396116</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4094,7 +4088,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -4103,34 +4097,34 @@
         <v>9</v>
       </c>
       <c r="E84">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H84">
-        <v>3.3176</v>
+        <v>3.9317</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>0.01803698628731662</v>
+        <v>0.0111012490663567</v>
       </c>
       <c r="K84">
         <v>0.9</v>
       </c>
       <c r="L84">
-        <v>0.01623328765858496</v>
+        <v>0.00999112415972103</v>
       </c>
       <c r="M84">
-        <v>3.671802207726831E-05</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N84">
-        <v>0.2787734432715554</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4138,7 +4132,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -4147,34 +4141,34 @@
         <v>9</v>
       </c>
       <c r="E85">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H85">
-        <v>3.1402</v>
+        <v>3.3176</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85">
-        <v>0.02394925923587276</v>
+        <v>0.02069059259105363</v>
       </c>
       <c r="K85">
         <v>0.9</v>
       </c>
       <c r="L85">
-        <v>0.02155433331228548</v>
+        <v>0.01862153333194826</v>
       </c>
       <c r="M85">
-        <v>0.0005853908925923523</v>
+        <v>3.291062942286471E-05</v>
       </c>
       <c r="N85">
-        <v>2.895564971504963</v>
+        <v>0.05010234162663767</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4182,7 +4176,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -4191,34 +4185,34 @@
         <v>9</v>
       </c>
       <c r="E86">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H86">
-        <v>4.251749999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>0.01697101809778617</v>
+        <v>0.03185805127065954</v>
       </c>
       <c r="K86">
         <v>0.9</v>
       </c>
       <c r="L86">
-        <v>0.01527391628800755</v>
+        <v>0.02867224614359359</v>
       </c>
       <c r="M86">
-        <v>4.324618707693178E-05</v>
+        <v>0.000175014555853058</v>
       </c>
       <c r="N86">
-        <v>0.01227266299094332</v>
+        <v>0.0787148062080076</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4226,7 +4220,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -4235,34 +4229,34 @@
         <v>9</v>
       </c>
       <c r="E87">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87">
-        <v>4.087149999999999</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0.02273997858586973</v>
+        <v>0.02577443873211377</v>
       </c>
       <c r="K87">
         <v>0.9</v>
       </c>
       <c r="L87">
-        <v>0.02046598072728276</v>
+        <v>0.02319699485890239</v>
       </c>
       <c r="M87">
-        <v>9.441034181154704E-06</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N87">
-        <v>0.03746772920036682</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4270,7 +4264,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -4279,34 +4273,34 @@
         <v>9</v>
       </c>
       <c r="E88">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H88">
-        <v>3.9317</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J88">
-        <v>0.01665121532570785</v>
+        <v>0.01882069471230707</v>
       </c>
       <c r="K88">
         <v>0.9</v>
       </c>
       <c r="L88">
-        <v>0.01498609379313706</v>
+        <v>0.01693862524107636</v>
       </c>
       <c r="M88">
-        <v>2.130806825184582E-05</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N88">
-        <v>0.04856477122737014</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4314,7 +4308,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -4323,34 +4317,34 @@
         <v>9</v>
       </c>
       <c r="E89">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89">
-        <v>3.76115</v>
+        <v>3.9317</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89">
-        <v>0.005644195162342308</v>
+        <v>0.01182389075096258</v>
       </c>
       <c r="K89">
         <v>0.9</v>
       </c>
       <c r="L89">
-        <v>0.005079775646108078</v>
+        <v>0.01064150167586632</v>
       </c>
       <c r="M89">
-        <v>8.862223014045866E-05</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N89">
-        <v>0.6574797639519758</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4358,7 +4352,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -4367,34 +4361,34 @@
         <v>9</v>
       </c>
       <c r="E90">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H90">
-        <v>3.61995</v>
+        <v>3.3176</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90">
-        <v>0.007551719752585261</v>
+        <v>0.02263645589655898</v>
       </c>
       <c r="K90">
         <v>0.9</v>
       </c>
       <c r="L90">
-        <v>0.006796547777326735</v>
+        <v>0.02037281030690308</v>
       </c>
       <c r="M90">
-        <v>7.003155972965688E-05</v>
+        <v>3.291062942286471E-05</v>
       </c>
       <c r="N90">
-        <v>0.7108802304396116</v>
+        <v>0.05010234162663767</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4402,7 +4396,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -4411,34 +4405,34 @@
         <v>9</v>
       </c>
       <c r="E91">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H91">
-        <v>3.3176</v>
+        <v>3.1402</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91">
-        <v>0.02084650067546117</v>
+        <v>0.02924272508181513</v>
       </c>
       <c r="K91">
         <v>0.9</v>
       </c>
       <c r="L91">
-        <v>0.01876185060791506</v>
+        <v>0.02631845257363362</v>
       </c>
       <c r="M91">
-        <v>3.671802207726831E-05</v>
+        <v>0.000175014555853058</v>
       </c>
       <c r="N91">
-        <v>0.2787734432715554</v>
+        <v>0.0787148062080076</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4446,7 +4440,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -4455,34 +4449,34 @@
         <v>9</v>
       </c>
       <c r="E92">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H92">
-        <v>3.1402</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J92">
-        <v>0.03157231476505027</v>
+        <v>0.01742065584979322</v>
       </c>
       <c r="K92">
         <v>0.9</v>
       </c>
       <c r="L92">
-        <v>0.02841508328854524</v>
+        <v>0.0156785902648139</v>
       </c>
       <c r="M92">
-        <v>0.0005853908925923523</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N92">
-        <v>2.895564971504963</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4490,7 +4484,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -4499,34 +4493,34 @@
         <v>9</v>
       </c>
       <c r="E93">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H93">
-        <v>4.251749999999999</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93">
-        <v>0.02455922271394022</v>
+        <v>0.01645110607452864</v>
       </c>
       <c r="K93">
         <v>0.9</v>
       </c>
       <c r="L93">
-        <v>0.0221033004425462</v>
+        <v>0.01480599546707578</v>
       </c>
       <c r="M93">
-        <v>4.324618707693178E-05</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N93">
-        <v>0.01227266299094332</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4534,7 +4528,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -4543,34 +4537,34 @@
         <v>9</v>
       </c>
       <c r="E94">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H94">
-        <v>4.087149999999999</v>
+        <v>3.9317</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94">
-        <v>0.02637650849897863</v>
+        <v>0.01087842948757177</v>
       </c>
       <c r="K94">
         <v>0.9</v>
       </c>
       <c r="L94">
-        <v>0.02373885764908077</v>
+        <v>0.009790586538814598</v>
       </c>
       <c r="M94">
-        <v>9.441034181154704E-06</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N94">
-        <v>0.03746772920036682</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4578,7 +4572,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -4587,34 +4581,34 @@
         <v>9</v>
       </c>
       <c r="E95">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H95">
-        <v>3.9317</v>
+        <v>3.3176</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95">
-        <v>0.02140410891765782</v>
+        <v>0.01958458577280118</v>
       </c>
       <c r="K95">
         <v>0.9</v>
       </c>
       <c r="L95">
-        <v>0.01926369802589204</v>
+        <v>0.01762612719552106</v>
       </c>
       <c r="M95">
-        <v>2.130806825184582E-05</v>
+        <v>3.291062942286471E-05</v>
       </c>
       <c r="N95">
-        <v>0.04856477122737014</v>
+        <v>0.05010234162663767</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4622,7 +4616,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4631,34 +4625,34 @@
         <v>9</v>
       </c>
       <c r="E96">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H96">
-        <v>3.76115</v>
+        <v>3.1402</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J96">
-        <v>0.01436152923440154</v>
+        <v>0.02780376728066912</v>
       </c>
       <c r="K96">
         <v>0.9</v>
       </c>
       <c r="L96">
-        <v>0.01292537631096139</v>
+        <v>0.02502339055260221</v>
       </c>
       <c r="M96">
-        <v>8.862223014045866E-05</v>
+        <v>0.000175014555853058</v>
       </c>
       <c r="N96">
-        <v>0.6574797639519758</v>
+        <v>0.0787148062080076</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4666,7 +4660,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4675,34 +4669,34 @@
         <v>9</v>
       </c>
       <c r="E97">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H97">
-        <v>3.61995</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97">
-        <v>0.01533072502105665</v>
+        <v>0.01838530201744635</v>
       </c>
       <c r="K97">
         <v>0.9</v>
       </c>
       <c r="L97">
-        <v>0.01379765251895098</v>
+        <v>0.01654677181570172</v>
       </c>
       <c r="M97">
-        <v>7.003155972965688E-05</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N97">
-        <v>0.7108802304396116</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4710,7 +4704,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -4719,34 +4713,34 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H98">
-        <v>3.3176</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>0.02666012546451039</v>
+        <v>0.01859525040242352</v>
       </c>
       <c r="K98">
         <v>0.9</v>
       </c>
       <c r="L98">
-        <v>0.02399411291805935</v>
+        <v>0.01673572536218117</v>
       </c>
       <c r="M98">
-        <v>3.671802207726831E-05</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N98">
-        <v>0.2787734432715554</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4754,7 +4748,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -4763,34 +4757,34 @@
         <v>9</v>
       </c>
       <c r="E99">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H99">
-        <v>3.1402</v>
+        <v>3.9317</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J99">
-        <v>0.04677123059048331</v>
+        <v>0.01061408106202341</v>
       </c>
       <c r="K99">
         <v>0.9</v>
       </c>
       <c r="L99">
-        <v>0.04209410753143498</v>
+        <v>0.009552672955821066</v>
       </c>
       <c r="M99">
-        <v>0.0005853908925923523</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N99">
-        <v>2.895564971504963</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4798,7 +4792,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -4807,34 +4801,34 @@
         <v>9</v>
       </c>
       <c r="E100">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H100">
-        <v>4.251749999999999</v>
+        <v>3.3176</v>
       </c>
       <c r="I100">
         <v>3</v>
       </c>
       <c r="J100">
-        <v>0.00264174483239484</v>
+        <v>0.01878983300948743</v>
       </c>
       <c r="K100">
         <v>0.9</v>
       </c>
       <c r="L100">
-        <v>0.002377570349155356</v>
+        <v>0.01691084970853869</v>
       </c>
       <c r="M100">
-        <v>0.0001240986093026534</v>
+        <v>3.291062942286471E-05</v>
       </c>
       <c r="N100">
-        <v>0.05369176613932969</v>
+        <v>0.05010234162663767</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4842,7 +4836,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -4851,34 +4845,34 @@
         <v>9</v>
       </c>
       <c r="E101">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H101">
-        <v>4.087149999999999</v>
+        <v>3.1402</v>
       </c>
       <c r="I101">
         <v>3</v>
       </c>
       <c r="J101">
-        <v>0.00224930544632867</v>
+        <v>0.019967230404787</v>
       </c>
       <c r="K101">
         <v>0.9</v>
       </c>
       <c r="L101">
-        <v>0.002024374901695803</v>
+        <v>0.0179705073643083</v>
       </c>
       <c r="M101">
-        <v>4.575285421306491E-05</v>
+        <v>0.000175014555853058</v>
       </c>
       <c r="N101">
-        <v>0.03776929990715586</v>
+        <v>0.0787148062080076</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4886,7 +4880,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -4895,34 +4889,34 @@
         <v>9</v>
       </c>
       <c r="E102">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H102">
-        <v>3.9317</v>
+        <v>4.251749999999999</v>
       </c>
       <c r="I102">
         <v>3</v>
       </c>
       <c r="J102">
-        <v>-0.002527062410917821</v>
+        <v>0.01782019491634309</v>
       </c>
       <c r="K102">
         <v>0.9</v>
       </c>
       <c r="L102">
-        <v>-0.002274356169826039</v>
+        <v>0.01603817542470878</v>
       </c>
       <c r="M102">
-        <v>5.055472685793632E-05</v>
+        <v>0.0001240986093026534</v>
       </c>
       <c r="N102">
-        <v>0.01844379754536547</v>
+        <v>0.05369176613932969</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4930,7 +4924,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4939,34 +4933,34 @@
         <v>9</v>
       </c>
       <c r="E103">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H103">
-        <v>3.76115</v>
+        <v>4.087149999999999</v>
       </c>
       <c r="I103">
         <v>3</v>
       </c>
       <c r="J103">
-        <v>-0.005252317681045996</v>
+        <v>0.01820430848039526</v>
       </c>
       <c r="K103">
         <v>0.9</v>
       </c>
       <c r="L103">
-        <v>-0.004727085912941397</v>
+        <v>0.01638387763235574</v>
       </c>
       <c r="M103">
-        <v>7.699687180276842E-05</v>
+        <v>4.575285421306491E-05</v>
       </c>
       <c r="N103">
-        <v>0.009924372396369114</v>
+        <v>0.03776929990715586</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4974,7 +4968,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -4983,34 +4977,34 @@
         <v>9</v>
       </c>
       <c r="E104">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H104">
-        <v>3.61995</v>
+        <v>3.9317</v>
       </c>
       <c r="I104">
         <v>3</v>
       </c>
       <c r="J104">
-        <v>-0.004564415353913933</v>
+        <v>0.01149285716137563</v>
       </c>
       <c r="K104">
         <v>0.9</v>
       </c>
       <c r="L104">
-        <v>-0.004107973818522541</v>
+        <v>0.01034357144523807</v>
       </c>
       <c r="M104">
-        <v>6.327891314580734E-05</v>
+        <v>5.055472685793632E-05</v>
       </c>
       <c r="N104">
-        <v>0.01191651999541732</v>
+        <v>0.01844379754536547</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5018,7 +5012,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -5027,13 +5021,13 @@
         <v>9</v>
       </c>
       <c r="E105">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="F105">
         <v>8</v>
       </c>
       <c r="G105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H105">
         <v>3.3176</v>
@@ -5042,13 +5036,13 @@
         <v>3</v>
       </c>
       <c r="J105">
-        <v>0.005972725456525683</v>
+        <v>0.02086192287769386</v>
       </c>
       <c r="K105">
         <v>0.9</v>
       </c>
       <c r="L105">
-        <v>0.005375452910873114</v>
+        <v>0.01877573058992447</v>
       </c>
       <c r="M105">
         <v>3.291062942286471E-05</v>
@@ -5062,7 +5056,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -5071,13 +5065,13 @@
         <v>9</v>
       </c>
       <c r="E106">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="F106">
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H106">
         <v>3.1402</v>
@@ -5086,1866 +5080,18 @@
         <v>3</v>
       </c>
       <c r="J106">
-        <v>0.006518702443218966</v>
+        <v>0.02948315768591487</v>
       </c>
       <c r="K106">
         <v>0.9</v>
       </c>
       <c r="L106">
-        <v>0.00586683219889707</v>
+        <v>0.02653484191732338</v>
       </c>
       <c r="M106">
         <v>0.000175014555853058</v>
       </c>
       <c r="N106">
-        <v>0.0787148062080076</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>137</v>
-      </c>
-      <c r="C107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107">
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <v>0.5</v>
-      </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
-      </c>
-      <c r="J107">
-        <v>0.02103249636071691</v>
-      </c>
-      <c r="K107">
-        <v>0.9</v>
-      </c>
-      <c r="L107">
-        <v>0.01892924672464522</v>
-      </c>
-      <c r="M107">
-        <v>0.0001240986093026534</v>
-      </c>
-      <c r="N107">
-        <v>0.05369176613932969</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>138</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108">
-        <v>9</v>
-      </c>
-      <c r="E108">
-        <v>0.5</v>
-      </c>
-      <c r="F108">
-        <v>4</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="I108">
-        <v>3</v>
-      </c>
-      <c r="J108">
-        <v>0.01594733294299942</v>
-      </c>
-      <c r="K108">
-        <v>0.9</v>
-      </c>
-      <c r="L108">
-        <v>0.01435259964869947</v>
-      </c>
-      <c r="M108">
-        <v>4.575285421306491E-05</v>
-      </c>
-      <c r="N108">
-        <v>0.03776929990715586</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>139</v>
-      </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109">
-        <v>9</v>
-      </c>
-      <c r="E109">
-        <v>0.5</v>
-      </c>
-      <c r="F109">
-        <v>5</v>
-      </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
-      <c r="H109">
-        <v>3.9317</v>
-      </c>
-      <c r="I109">
-        <v>3</v>
-      </c>
-      <c r="J109">
-        <v>0.009942823999137783</v>
-      </c>
-      <c r="K109">
-        <v>0.9</v>
-      </c>
-      <c r="L109">
-        <v>0.008948541599224005</v>
-      </c>
-      <c r="M109">
-        <v>5.055472685793632E-05</v>
-      </c>
-      <c r="N109">
-        <v>0.01844379754536547</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>140</v>
-      </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110">
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <v>0.5</v>
-      </c>
-      <c r="F110">
-        <v>6</v>
-      </c>
-      <c r="G110" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110">
-        <v>3.76115</v>
-      </c>
-      <c r="I110">
-        <v>3</v>
-      </c>
-      <c r="J110">
-        <v>0.006458666138164954</v>
-      </c>
-      <c r="K110">
-        <v>0.9</v>
-      </c>
-      <c r="L110">
-        <v>0.005812799524348459</v>
-      </c>
-      <c r="M110">
-        <v>7.699687180276842E-05</v>
-      </c>
-      <c r="N110">
-        <v>0.009924372396369114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>141</v>
-      </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111">
-        <v>9</v>
-      </c>
-      <c r="E111">
-        <v>0.5</v>
-      </c>
-      <c r="F111">
-        <v>7</v>
-      </c>
-      <c r="G111" t="s">
-        <v>18</v>
-      </c>
-      <c r="H111">
-        <v>3.61995</v>
-      </c>
-      <c r="I111">
-        <v>3</v>
-      </c>
-      <c r="J111">
-        <v>0.006753932132131856</v>
-      </c>
-      <c r="K111">
-        <v>0.9</v>
-      </c>
-      <c r="L111">
-        <v>0.00607853891891867</v>
-      </c>
-      <c r="M111">
-        <v>6.327891314580734E-05</v>
-      </c>
-      <c r="N111">
-        <v>0.01191651999541732</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>142</v>
-      </c>
-      <c r="C112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112">
-        <v>9</v>
-      </c>
-      <c r="E112">
-        <v>0.5</v>
-      </c>
-      <c r="F112">
-        <v>8</v>
-      </c>
-      <c r="G112" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112">
-        <v>3.3176</v>
-      </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
-      <c r="J112">
-        <v>0.01739240325373589</v>
-      </c>
-      <c r="K112">
-        <v>0.9</v>
-      </c>
-      <c r="L112">
-        <v>0.01565316292836231</v>
-      </c>
-      <c r="M112">
-        <v>3.291062942286471E-05</v>
-      </c>
-      <c r="N112">
-        <v>0.05010234162663767</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>143</v>
-      </c>
-      <c r="C113" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113">
-        <v>9</v>
-      </c>
-      <c r="E113">
-        <v>0.5</v>
-      </c>
-      <c r="F113">
-        <v>9</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113">
-        <v>3.1402</v>
-      </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
-      <c r="J113">
-        <v>0.02759227040651457</v>
-      </c>
-      <c r="K113">
-        <v>0.9</v>
-      </c>
-      <c r="L113">
-        <v>0.02483304336586311</v>
-      </c>
-      <c r="M113">
-        <v>0.000175014555853058</v>
-      </c>
-      <c r="N113">
-        <v>0.0787148062080076</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>146</v>
-      </c>
-      <c r="C114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114">
-        <v>9</v>
-      </c>
-      <c r="E114">
-        <v>0.75</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="J114">
-        <v>0.02034122329495347</v>
-      </c>
-      <c r="K114">
-        <v>0.9</v>
-      </c>
-      <c r="L114">
-        <v>0.01830710096545812</v>
-      </c>
-      <c r="M114">
-        <v>0.0001240986093026534</v>
-      </c>
-      <c r="N114">
-        <v>0.05369176613932969</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>147</v>
-      </c>
-      <c r="C115" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115">
-        <v>9</v>
-      </c>
-      <c r="E115">
-        <v>0.75</v>
-      </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="I115">
-        <v>3</v>
-      </c>
-      <c r="J115">
-        <v>0.01813355044152688</v>
-      </c>
-      <c r="K115">
-        <v>0.9</v>
-      </c>
-      <c r="L115">
-        <v>0.01632019539737419</v>
-      </c>
-      <c r="M115">
-        <v>4.575285421306491E-05</v>
-      </c>
-      <c r="N115">
-        <v>0.03776929990715586</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>148</v>
-      </c>
-      <c r="C116" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116">
-        <v>9</v>
-      </c>
-      <c r="E116">
-        <v>0.75</v>
-      </c>
-      <c r="F116">
-        <v>5</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
-      <c r="H116">
-        <v>3.9317</v>
-      </c>
-      <c r="I116">
-        <v>3</v>
-      </c>
-      <c r="J116">
-        <v>0.0111012490663567</v>
-      </c>
-      <c r="K116">
-        <v>0.9</v>
-      </c>
-      <c r="L116">
-        <v>0.00999112415972103</v>
-      </c>
-      <c r="M116">
-        <v>5.055472685793632E-05</v>
-      </c>
-      <c r="N116">
-        <v>0.01844379754536547</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>149</v>
-      </c>
-      <c r="C117" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117">
-        <v>9</v>
-      </c>
-      <c r="E117">
-        <v>0.75</v>
-      </c>
-      <c r="F117">
-        <v>6</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117">
-        <v>3.76115</v>
-      </c>
-      <c r="I117">
-        <v>3</v>
-      </c>
-      <c r="J117">
-        <v>0.006659153827210098</v>
-      </c>
-      <c r="K117">
-        <v>0.9</v>
-      </c>
-      <c r="L117">
-        <v>0.005993238444489088</v>
-      </c>
-      <c r="M117">
-        <v>7.699687180276842E-05</v>
-      </c>
-      <c r="N117">
-        <v>0.009924372396369114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>150</v>
-      </c>
-      <c r="C118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118">
-        <v>9</v>
-      </c>
-      <c r="E118">
-        <v>0.75</v>
-      </c>
-      <c r="F118">
-        <v>7</v>
-      </c>
-      <c r="G118" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118">
-        <v>3.61995</v>
-      </c>
-      <c r="I118">
-        <v>3</v>
-      </c>
-      <c r="J118">
-        <v>0.007830006868506746</v>
-      </c>
-      <c r="K118">
-        <v>0.9</v>
-      </c>
-      <c r="L118">
-        <v>0.007047006181656072</v>
-      </c>
-      <c r="M118">
-        <v>6.327891314580734E-05</v>
-      </c>
-      <c r="N118">
-        <v>0.01191651999541732</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>151</v>
-      </c>
-      <c r="C119" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119">
-        <v>9</v>
-      </c>
-      <c r="E119">
-        <v>0.75</v>
-      </c>
-      <c r="F119">
-        <v>8</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119">
-        <v>3.3176</v>
-      </c>
-      <c r="I119">
-        <v>3</v>
-      </c>
-      <c r="J119">
-        <v>0.02069059259105363</v>
-      </c>
-      <c r="K119">
-        <v>0.9</v>
-      </c>
-      <c r="L119">
-        <v>0.01862153333194826</v>
-      </c>
-      <c r="M119">
-        <v>3.291062942286471E-05</v>
-      </c>
-      <c r="N119">
-        <v>0.05010234162663767</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>152</v>
-      </c>
-      <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120">
-        <v>9</v>
-      </c>
-      <c r="E120">
-        <v>0.75</v>
-      </c>
-      <c r="F120">
-        <v>9</v>
-      </c>
-      <c r="G120" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120">
-        <v>3.1402</v>
-      </c>
-      <c r="I120">
-        <v>3</v>
-      </c>
-      <c r="J120">
-        <v>0.03185805127065954</v>
-      </c>
-      <c r="K120">
-        <v>0.9</v>
-      </c>
-      <c r="L120">
-        <v>0.02867224614359359</v>
-      </c>
-      <c r="M120">
-        <v>0.000175014555853058</v>
-      </c>
-      <c r="N120">
-        <v>0.0787148062080076</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>155</v>
-      </c>
-      <c r="C121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121">
-        <v>9</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="I121">
-        <v>3</v>
-      </c>
-      <c r="J121">
-        <v>0.02577443873211377</v>
-      </c>
-      <c r="K121">
-        <v>0.9</v>
-      </c>
-      <c r="L121">
-        <v>0.02319699485890239</v>
-      </c>
-      <c r="M121">
-        <v>0.0001240986093026534</v>
-      </c>
-      <c r="N121">
-        <v>0.05369176613932969</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>156</v>
-      </c>
-      <c r="C122" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122">
-        <v>9</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>4</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
-      <c r="J122">
-        <v>0.01882069471230707</v>
-      </c>
-      <c r="K122">
-        <v>0.9</v>
-      </c>
-      <c r="L122">
-        <v>0.01693862524107636</v>
-      </c>
-      <c r="M122">
-        <v>4.575285421306491E-05</v>
-      </c>
-      <c r="N122">
-        <v>0.03776929990715586</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>157</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123">
-        <v>9</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>5</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123">
-        <v>3.9317</v>
-      </c>
-      <c r="I123">
-        <v>3</v>
-      </c>
-      <c r="J123">
-        <v>0.01182389075096258</v>
-      </c>
-      <c r="K123">
-        <v>0.9</v>
-      </c>
-      <c r="L123">
-        <v>0.01064150167586632</v>
-      </c>
-      <c r="M123">
-        <v>5.055472685793632E-05</v>
-      </c>
-      <c r="N123">
-        <v>0.01844379754536547</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>158</v>
-      </c>
-      <c r="C124" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124">
-        <v>9</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>6</v>
-      </c>
-      <c r="G124" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124">
-        <v>3.76115</v>
-      </c>
-      <c r="I124">
-        <v>3</v>
-      </c>
-      <c r="J124">
-        <v>0.00734351525080407</v>
-      </c>
-      <c r="K124">
-        <v>0.9</v>
-      </c>
-      <c r="L124">
-        <v>0.006609163725723664</v>
-      </c>
-      <c r="M124">
-        <v>7.699687180276842E-05</v>
-      </c>
-      <c r="N124">
-        <v>0.009924372396369114</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>159</v>
-      </c>
-      <c r="C125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125">
-        <v>9</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125">
-        <v>7</v>
-      </c>
-      <c r="G125" t="s">
-        <v>18</v>
-      </c>
-      <c r="H125">
-        <v>3.61995</v>
-      </c>
-      <c r="I125">
-        <v>3</v>
-      </c>
-      <c r="J125">
-        <v>0.01020630393472203</v>
-      </c>
-      <c r="K125">
-        <v>0.9</v>
-      </c>
-      <c r="L125">
-        <v>0.00918567354124983</v>
-      </c>
-      <c r="M125">
-        <v>6.327891314580734E-05</v>
-      </c>
-      <c r="N125">
-        <v>0.01191651999541732</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>160</v>
-      </c>
-      <c r="C126" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126">
-        <v>9</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126">
-        <v>8</v>
-      </c>
-      <c r="G126" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126">
-        <v>3.3176</v>
-      </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
-      <c r="J126">
-        <v>0.02263645589655898</v>
-      </c>
-      <c r="K126">
-        <v>0.9</v>
-      </c>
-      <c r="L126">
-        <v>0.02037281030690308</v>
-      </c>
-      <c r="M126">
-        <v>3.291062942286471E-05</v>
-      </c>
-      <c r="N126">
-        <v>0.05010234162663767</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>161</v>
-      </c>
-      <c r="C127" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127">
-        <v>9</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>9</v>
-      </c>
-      <c r="G127" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127">
-        <v>3.1402</v>
-      </c>
-      <c r="I127">
-        <v>3</v>
-      </c>
-      <c r="J127">
-        <v>0.02924272508181513</v>
-      </c>
-      <c r="K127">
-        <v>0.9</v>
-      </c>
-      <c r="L127">
-        <v>0.02631845257363362</v>
-      </c>
-      <c r="M127">
-        <v>0.000175014555853058</v>
-      </c>
-      <c r="N127">
-        <v>0.0787148062080076</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>164</v>
-      </c>
-      <c r="C128" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128">
-        <v>9</v>
-      </c>
-      <c r="E128">
-        <v>1.25</v>
-      </c>
-      <c r="F128">
-        <v>3</v>
-      </c>
-      <c r="G128" t="s">
-        <v>14</v>
-      </c>
-      <c r="H128">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="I128">
-        <v>3</v>
-      </c>
-      <c r="J128">
-        <v>0.01742065584979322</v>
-      </c>
-      <c r="K128">
-        <v>0.9</v>
-      </c>
-      <c r="L128">
-        <v>0.0156785902648139</v>
-      </c>
-      <c r="M128">
-        <v>0.0001240986093026534</v>
-      </c>
-      <c r="N128">
-        <v>0.05369176613932969</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>165</v>
-      </c>
-      <c r="C129" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129">
-        <v>9</v>
-      </c>
-      <c r="E129">
-        <v>1.25</v>
-      </c>
-      <c r="F129">
-        <v>4</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
-      <c r="H129">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="I129">
-        <v>3</v>
-      </c>
-      <c r="J129">
-        <v>0.01645110607452864</v>
-      </c>
-      <c r="K129">
-        <v>0.9</v>
-      </c>
-      <c r="L129">
-        <v>0.01480599546707578</v>
-      </c>
-      <c r="M129">
-        <v>4.575285421306491E-05</v>
-      </c>
-      <c r="N129">
-        <v>0.03776929990715586</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>166</v>
-      </c>
-      <c r="C130" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130">
-        <v>9</v>
-      </c>
-      <c r="E130">
-        <v>1.25</v>
-      </c>
-      <c r="F130">
-        <v>5</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
-      <c r="H130">
-        <v>3.9317</v>
-      </c>
-      <c r="I130">
-        <v>3</v>
-      </c>
-      <c r="J130">
-        <v>0.01087842948757177</v>
-      </c>
-      <c r="K130">
-        <v>0.9</v>
-      </c>
-      <c r="L130">
-        <v>0.009790586538814598</v>
-      </c>
-      <c r="M130">
-        <v>5.055472685793632E-05</v>
-      </c>
-      <c r="N130">
-        <v>0.01844379754536547</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>167</v>
-      </c>
-      <c r="C131" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131">
-        <v>9</v>
-      </c>
-      <c r="E131">
-        <v>1.25</v>
-      </c>
-      <c r="F131">
-        <v>6</v>
-      </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-      <c r="H131">
-        <v>3.76115</v>
-      </c>
-      <c r="I131">
-        <v>3</v>
-      </c>
-      <c r="J131">
-        <v>0.005234488481784573</v>
-      </c>
-      <c r="K131">
-        <v>0.9</v>
-      </c>
-      <c r="L131">
-        <v>0.004711039633606116</v>
-      </c>
-      <c r="M131">
-        <v>7.699687180276842E-05</v>
-      </c>
-      <c r="N131">
-        <v>0.009924372396369114</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>168</v>
-      </c>
-      <c r="C132" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132">
-        <v>9</v>
-      </c>
-      <c r="E132">
-        <v>1.25</v>
-      </c>
-      <c r="F132">
-        <v>7</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132">
-        <v>3.61995</v>
-      </c>
-      <c r="I132">
-        <v>3</v>
-      </c>
-      <c r="J132">
-        <v>0.007813582653921734</v>
-      </c>
-      <c r="K132">
-        <v>0.9</v>
-      </c>
-      <c r="L132">
-        <v>0.007032224388529561</v>
-      </c>
-      <c r="M132">
-        <v>6.327891314580734E-05</v>
-      </c>
-      <c r="N132">
-        <v>0.01191651999541732</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>169</v>
-      </c>
-      <c r="C133" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133">
-        <v>9</v>
-      </c>
-      <c r="E133">
-        <v>1.25</v>
-      </c>
-      <c r="F133">
-        <v>8</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133">
-        <v>3.3176</v>
-      </c>
-      <c r="I133">
-        <v>3</v>
-      </c>
-      <c r="J133">
-        <v>0.01958458577280118</v>
-      </c>
-      <c r="K133">
-        <v>0.9</v>
-      </c>
-      <c r="L133">
-        <v>0.01762612719552106</v>
-      </c>
-      <c r="M133">
-        <v>3.291062942286471E-05</v>
-      </c>
-      <c r="N133">
-        <v>0.05010234162663767</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>170</v>
-      </c>
-      <c r="C134" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134">
-        <v>9</v>
-      </c>
-      <c r="E134">
-        <v>1.25</v>
-      </c>
-      <c r="F134">
-        <v>9</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134">
-        <v>3.1402</v>
-      </c>
-      <c r="I134">
-        <v>3</v>
-      </c>
-      <c r="J134">
-        <v>0.02780376728066912</v>
-      </c>
-      <c r="K134">
-        <v>0.9</v>
-      </c>
-      <c r="L134">
-        <v>0.02502339055260221</v>
-      </c>
-      <c r="M134">
-        <v>0.000175014555853058</v>
-      </c>
-      <c r="N134">
-        <v>0.0787148062080076</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>173</v>
-      </c>
-      <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135">
-        <v>9</v>
-      </c>
-      <c r="E135">
-        <v>1.5</v>
-      </c>
-      <c r="F135">
-        <v>3</v>
-      </c>
-      <c r="G135" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="I135">
-        <v>3</v>
-      </c>
-      <c r="J135">
-        <v>0.01838530201744635</v>
-      </c>
-      <c r="K135">
-        <v>0.9</v>
-      </c>
-      <c r="L135">
-        <v>0.01654677181570172</v>
-      </c>
-      <c r="M135">
-        <v>0.0001240986093026534</v>
-      </c>
-      <c r="N135">
-        <v>0.05369176613932969</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>174</v>
-      </c>
-      <c r="C136" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136">
-        <v>9</v>
-      </c>
-      <c r="E136">
-        <v>1.5</v>
-      </c>
-      <c r="F136">
-        <v>4</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
-      <c r="H136">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
-      <c r="J136">
-        <v>0.01859525040242352</v>
-      </c>
-      <c r="K136">
-        <v>0.9</v>
-      </c>
-      <c r="L136">
-        <v>0.01673572536218117</v>
-      </c>
-      <c r="M136">
-        <v>4.575285421306491E-05</v>
-      </c>
-      <c r="N136">
-        <v>0.03776929990715586</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>175</v>
-      </c>
-      <c r="C137" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137">
-        <v>9</v>
-      </c>
-      <c r="E137">
-        <v>1.5</v>
-      </c>
-      <c r="F137">
-        <v>5</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
-      <c r="H137">
-        <v>3.9317</v>
-      </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137">
-        <v>0.01061408106202341</v>
-      </c>
-      <c r="K137">
-        <v>0.9</v>
-      </c>
-      <c r="L137">
-        <v>0.009552672955821066</v>
-      </c>
-      <c r="M137">
-        <v>5.055472685793632E-05</v>
-      </c>
-      <c r="N137">
-        <v>0.01844379754536547</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>176</v>
-      </c>
-      <c r="C138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138">
-        <v>1.5</v>
-      </c>
-      <c r="F138">
-        <v>6</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138">
-        <v>3.76115</v>
-      </c>
-      <c r="I138">
-        <v>3</v>
-      </c>
-      <c r="J138">
-        <v>0.001842459488792389</v>
-      </c>
-      <c r="K138">
-        <v>0.9</v>
-      </c>
-      <c r="L138">
-        <v>0.00165821353991315</v>
-      </c>
-      <c r="M138">
-        <v>7.699687180276842E-05</v>
-      </c>
-      <c r="N138">
-        <v>0.009924372396369114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>177</v>
-      </c>
-      <c r="C139" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>1.5</v>
-      </c>
-      <c r="F139">
-        <v>7</v>
-      </c>
-      <c r="G139" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139">
-        <v>3.61995</v>
-      </c>
-      <c r="I139">
-        <v>3</v>
-      </c>
-      <c r="J139">
-        <v>0.00571642461979658</v>
-      </c>
-      <c r="K139">
-        <v>0.9</v>
-      </c>
-      <c r="L139">
-        <v>0.005144782157816922</v>
-      </c>
-      <c r="M139">
-        <v>6.327891314580734E-05</v>
-      </c>
-      <c r="N139">
-        <v>0.01191651999541732</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>178</v>
-      </c>
-      <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140">
-        <v>9</v>
-      </c>
-      <c r="E140">
-        <v>1.5</v>
-      </c>
-      <c r="F140">
-        <v>8</v>
-      </c>
-      <c r="G140" t="s">
-        <v>19</v>
-      </c>
-      <c r="H140">
-        <v>3.3176</v>
-      </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
-      <c r="J140">
-        <v>0.01878983300948743</v>
-      </c>
-      <c r="K140">
-        <v>0.9</v>
-      </c>
-      <c r="L140">
-        <v>0.01691084970853869</v>
-      </c>
-      <c r="M140">
-        <v>3.291062942286471E-05</v>
-      </c>
-      <c r="N140">
-        <v>0.05010234162663767</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>179</v>
-      </c>
-      <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141">
-        <v>9</v>
-      </c>
-      <c r="E141">
-        <v>1.5</v>
-      </c>
-      <c r="F141">
-        <v>9</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H141">
-        <v>3.1402</v>
-      </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
-      <c r="J141">
-        <v>0.019967230404787</v>
-      </c>
-      <c r="K141">
-        <v>0.9</v>
-      </c>
-      <c r="L141">
-        <v>0.0179705073643083</v>
-      </c>
-      <c r="M141">
-        <v>0.000175014555853058</v>
-      </c>
-      <c r="N141">
-        <v>0.0787148062080076</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>182</v>
-      </c>
-      <c r="C142" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>1.75</v>
-      </c>
-      <c r="F142">
-        <v>3</v>
-      </c>
-      <c r="G142" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142">
-        <v>4.251749999999999</v>
-      </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
-      <c r="J142">
-        <v>0.01782019491634309</v>
-      </c>
-      <c r="K142">
-        <v>0.9</v>
-      </c>
-      <c r="L142">
-        <v>0.01603817542470878</v>
-      </c>
-      <c r="M142">
-        <v>0.0001240986093026534</v>
-      </c>
-      <c r="N142">
-        <v>0.05369176613932969</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>183</v>
-      </c>
-      <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>1.75</v>
-      </c>
-      <c r="F143">
-        <v>4</v>
-      </c>
-      <c r="G143" t="s">
-        <v>15</v>
-      </c>
-      <c r="H143">
-        <v>4.087149999999999</v>
-      </c>
-      <c r="I143">
-        <v>3</v>
-      </c>
-      <c r="J143">
-        <v>0.01820430848039526</v>
-      </c>
-      <c r="K143">
-        <v>0.9</v>
-      </c>
-      <c r="L143">
-        <v>0.01638387763235574</v>
-      </c>
-      <c r="M143">
-        <v>4.575285421306491E-05</v>
-      </c>
-      <c r="N143">
-        <v>0.03776929990715586</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>184</v>
-      </c>
-      <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144">
-        <v>9</v>
-      </c>
-      <c r="E144">
-        <v>1.75</v>
-      </c>
-      <c r="F144">
-        <v>5</v>
-      </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144">
-        <v>3.9317</v>
-      </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="J144">
-        <v>0.01149285716137563</v>
-      </c>
-      <c r="K144">
-        <v>0.9</v>
-      </c>
-      <c r="L144">
-        <v>0.01034357144523807</v>
-      </c>
-      <c r="M144">
-        <v>5.055472685793632E-05</v>
-      </c>
-      <c r="N144">
-        <v>0.01844379754536547</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>185</v>
-      </c>
-      <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145">
-        <v>9</v>
-      </c>
-      <c r="E145">
-        <v>1.75</v>
-      </c>
-      <c r="F145">
-        <v>6</v>
-      </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145">
-        <v>3.76115</v>
-      </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
-      <c r="J145">
-        <v>0.002243337787531188</v>
-      </c>
-      <c r="K145">
-        <v>0.9</v>
-      </c>
-      <c r="L145">
-        <v>0.002019004008778069</v>
-      </c>
-      <c r="M145">
-        <v>7.699687180276842E-05</v>
-      </c>
-      <c r="N145">
-        <v>0.009924372396369114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>186</v>
-      </c>
-      <c r="C146" t="s">
-        <v>13</v>
-      </c>
-      <c r="D146">
-        <v>9</v>
-      </c>
-      <c r="E146">
-        <v>1.75</v>
-      </c>
-      <c r="F146">
-        <v>7</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
-      <c r="H146">
-        <v>3.61995</v>
-      </c>
-      <c r="I146">
-        <v>3</v>
-      </c>
-      <c r="J146">
-        <v>0.007457516890652331</v>
-      </c>
-      <c r="K146">
-        <v>0.9</v>
-      </c>
-      <c r="L146">
-        <v>0.006711765201587098</v>
-      </c>
-      <c r="M146">
-        <v>6.327891314580734E-05</v>
-      </c>
-      <c r="N146">
-        <v>0.01191651999541732</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>187</v>
-      </c>
-      <c r="C147" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147">
-        <v>9</v>
-      </c>
-      <c r="E147">
-        <v>1.75</v>
-      </c>
-      <c r="F147">
-        <v>8</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
-      <c r="H147">
-        <v>3.3176</v>
-      </c>
-      <c r="I147">
-        <v>3</v>
-      </c>
-      <c r="J147">
-        <v>0.02086192287769386</v>
-      </c>
-      <c r="K147">
-        <v>0.9</v>
-      </c>
-      <c r="L147">
-        <v>0.01877573058992447</v>
-      </c>
-      <c r="M147">
-        <v>3.291062942286471E-05</v>
-      </c>
-      <c r="N147">
-        <v>0.05010234162663767</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>188</v>
-      </c>
-      <c r="C148" t="s">
-        <v>13</v>
-      </c>
-      <c r="D148">
-        <v>9</v>
-      </c>
-      <c r="E148">
-        <v>1.75</v>
-      </c>
-      <c r="F148">
-        <v>9</v>
-      </c>
-      <c r="G148" t="s">
-        <v>20</v>
-      </c>
-      <c r="H148">
-        <v>3.1402</v>
-      </c>
-      <c r="I148">
-        <v>3</v>
-      </c>
-      <c r="J148">
-        <v>0.02948315768591487</v>
-      </c>
-      <c r="K148">
-        <v>0.9</v>
-      </c>
-      <c r="L148">
-        <v>0.02653484191732338</v>
-      </c>
-      <c r="M148">
-        <v>0.000175014555853058</v>
-      </c>
-      <c r="N148">
         <v>0.0787148062080076</v>
       </c>
     </row>
